--- a/EazyRP_project/src/main/webapp/resources/forms/발주보고서.xlsx
+++ b/EazyRP_project/src/main/webapp/resources/forms/발주보고서.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>소  속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,11 +53,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발주 보고서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발주 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주 요청 할 업체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직위다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희성전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주보고서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,21 +243,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -224,6 +256,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -522,195 +569,217 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -718,7 +787,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -726,7 +795,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -734,7 +803,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -742,7 +811,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -750,7 +819,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -758,7 +827,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -766,7 +835,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -774,7 +843,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -782,7 +851,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -790,7 +859,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -798,7 +867,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -806,7 +875,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -814,7 +883,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -822,7 +891,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -830,41 +899,63 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A19:D19"/>
+  <mergeCells count="35">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -877,25 +968,7 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
